--- a/biology/Botanique/Sasuke_Nakao/Sasuke_Nakao.xlsx
+++ b/biology/Botanique/Sasuke_Nakao/Sasuke_Nakao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sasuke Nakao (中尾佐助, Nakao Sasuke?), né le 12 août 1916 à Toyokawa et mort le 22 novembre 1993 à Kyoto, est un botaniste et ethnobotaniste japonais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Titulaire d'un doctorat en agronomie de l'université de Kyoto, Sasuke Nakao a été professeur à l'université préfectorale d'Osaka puis à l'université de Kagoshima. Il s'est durant sa carrière spécialisé dans l'étude de l'apparition de l'agriculture en Asie (il a exploré la région himalayenne, le nord de l'Inde, la Mongolie, la Corée, la Chine, la Micronésie...) qu'il tente également de lier avec le développement des cultures asiatiques. Ses travaux le conduisirent à postuler un lien entre l'origine de l'agriculture au Japon et en Asie de l'Est. Il a également étudié la flore de l'Himalaya et les laurisylves, dont les cultures locales se retrouvent par certains aspects au Japon.
 </t>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>秘境ブータン (« Le Bhoutan inexploré »), Mainichi, 1959
 ヒマラヤの花 (« Fleurs himalayennes »), Mainichi, 1964
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(ja) « 中尾佐助 », 「講談社　日本人名大辞典」, 2009 [lire en ligne] (« Nakao Sasuke », Dictionnaire biographique Kōdansha du Japon, version en ligne sur kotobank.jp)
 (en) Gary W. Crawford, « Prehistoric Plant Domestication in East Asia », dans Origins of Agriculture: An International Perspective, University of Alabama Press, 2008, p. 17-18  (ISBN 9780817353490)
